--- a/kursayin/output.xlsx
+++ b/kursayin/output.xlsx
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.75106</v>
+        <v>0.248935</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.97524</v>
+        <v>1.98237</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.99815</v>
+        <v>3.7371</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.99988</v>
+        <v>4.61248</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.99999</v>
+        <v>4.90651</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4.98145</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4.99687</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4.99954</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4.99994</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4.99999</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -699,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.92674</v>
+        <v>0.0732626</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -945,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.6778</v>
+        <v>1.00942</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -956,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.90198</v>
+        <v>2.40263</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -967,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.97256</v>
+        <v>3.81036</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -978,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.995469999999999</v>
+        <v>4.74652</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.99808</v>
+        <v>6.13972</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1000,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.9998</v>
+        <v>7.09845</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.999919999999999</v>
+        <v>7.97383</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.99999</v>
+        <v>8.409929999999999</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8.70397</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8.85342</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>8.92836</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>8.9696</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8.98503</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>8.994579999999999</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8.99724</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>8.99915</v>
+      </c>
+      <c r="C19">
         <v>9</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>8.999549999999999</v>
+      </c>
+      <c r="C20">
         <v>9</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8.999879999999999</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8.999930000000001</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>8.999980000000001</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>8.99999</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.95913</v>
+        <v>0.0408677</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1381,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.8859</v>
+        <v>1.23769</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6369</v>
+        <v>4.07041</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.8611</v>
+        <v>6.88358</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9317</v>
+        <v>8.678559999999999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.9722</v>
+        <v>9.53274</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.9951</v>
+        <v>9.85863</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.9977</v>
+        <v>11.0812</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.9995</v>
+        <v>12.4889</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.9998</v>
+        <v>13.4251</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.9999</v>
+        <v>14.8183</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>15.777</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>16.6524</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>17.5066</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>17.9427</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>18.2686</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18.5626</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>18.7121</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>18.8161</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>18.891</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>18.9323</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>18.9609</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>18.9763</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>18.9858</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>18.9927</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>18.9954</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>18.9973</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>18.9988</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>18.9992</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>18.9995</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>18.9998</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>18.9999</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>18.9999</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.6017</v>
+        <v>0.398297</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.5608</v>
+        <v>3.17179</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1828,10 +1828,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.4876</v>
+        <v>5.97936</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1839,10 +1839,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.2386</v>
+        <v>7.37996</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1850,10 +1850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.5973</v>
+        <v>7.85042</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.8215</v>
+        <v>10.0554</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1872,10 +1872,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.8921</v>
+        <v>12.8629</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1883,10 +1883,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.9326</v>
+        <v>14.6579</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1894,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.9693</v>
+        <v>16.0585</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1905,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.9922</v>
+        <v>16.9127</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1916,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.9949</v>
+        <v>17.3832</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1927,10 +1927,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.9975</v>
+        <v>18.4683</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9993</v>
+        <v>19.8689</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1949,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.9996</v>
+        <v>20.805</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1960,10 +1960,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.9998</v>
+        <v>22.1982</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1971,10 +1971,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.9999</v>
+        <v>23.157</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1982,10 +1982,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>24.0323</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1993,10 +1993,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>24.8865</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2004,10 +2004,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>25.357</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2015,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>25.7931</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2026,10 +2026,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>26.119</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2037,10 +2037,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>26.413</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2048,10 +2048,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2059,10 +2059,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>26.6824</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2070,10 +2070,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>26.7864</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2081,10 +2081,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>26.8613</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2092,10 +2092,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26.9026</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2103,10 +2103,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>26.9312</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>26.9559</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2125,10 +2125,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>26.9713</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27</v>
+        <v>26.9808</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2147,10 +2147,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>26.9877</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2158,10 +2158,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>26.992</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2169,10 +2169,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>26.9947</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2180,10 +2180,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>26.9966</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2191,10 +2191,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>26.9981</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96667</v>
+        <v>0.033327</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.5684</v>
+        <v>0.599068</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.5275</v>
+        <v>3.20511</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.4542</v>
+        <v>6.01268</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.2053</v>
+        <v>7.41329</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.564</v>
+        <v>7.97903</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.7882</v>
+        <v>10.0887</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.8588</v>
+        <v>12.8963</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.8993</v>
+        <v>14.6912</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.9359</v>
+        <v>16.0918</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2352,10 +2352,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.9685</v>
+        <v>16.946</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2363,10 +2363,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.9914</v>
+        <v>17.6519</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2374,10 +2374,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.9942</v>
+        <v>18.5061</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.9968</v>
+        <v>19.9022</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2396,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.9985</v>
+        <v>20.8384</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2407,10 +2407,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.9993</v>
+        <v>22.2316</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9996</v>
+        <v>23.1903</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2429,10 +2429,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.9998</v>
+        <v>24.0657</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2440,10 +2440,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.9999</v>
+        <v>24.9199</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>25.6258</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2462,10 +2462,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>26.4799</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>27.2625</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2484,7 +2484,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>27.7329</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2495,7 +2495,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>28.169</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2506,10 +2506,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>28.5723</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>28.8982</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>29.1922</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>29.3483</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>29.4977</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>29.6176</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2572,10 +2572,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>29.7217</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>29.7966</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2594,10 +2594,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>29.8452</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2605,10 +2605,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>29.8864</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2616,10 +2616,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>29.915</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2627,10 +2627,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>29.9397</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.42541</v>
+        <v>0.574595</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.39208</v>
+        <v>3.43647</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2700,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.9938</v>
+        <v>5.73477</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.9529</v>
+        <v>6.67346</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2722,10 +2722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.8797</v>
+        <v>6.93398</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.6307</v>
+        <v>9.449159999999999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2744,10 +2744,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.1113</v>
+        <v>11.7475</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.47</v>
+        <v>13.1481</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2766,10 +2766,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.6942</v>
+        <v>14.0868</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2777,10 +2777,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.7766</v>
+        <v>16.3327</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.8471</v>
+        <v>18.631</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.8877</v>
+        <v>20.426</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2810,7 +2810,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.9243</v>
+        <v>21.8266</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2821,10 +2821,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.9569</v>
+        <v>22.7653</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2832,10 +2832,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.9798</v>
+        <v>23.6195</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2843,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.9902</v>
+        <v>24.3254</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2854,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>36.9929</v>
+        <v>25.637</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.9955</v>
+        <v>26.5757</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2876,10 +2876,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.9973</v>
+        <v>27.9663</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2887,10 +2887,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.9984</v>
+        <v>28.9251</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2898,10 +2898,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.9991</v>
+        <v>29.8638</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2909,10 +2909,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.9995</v>
+        <v>30.7391</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2920,10 +2920,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36.9996</v>
+        <v>31.5933</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2931,10 +2931,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>36.9998</v>
+        <v>32.2992</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2942,10 +2942,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>36.9999</v>
+        <v>33.1534</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2953,10 +2953,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>37</v>
+        <v>33.9359</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2964,10 +2964,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>37</v>
+        <v>34.4064</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2975,10 +2975,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>37</v>
+        <v>34.8425</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2986,10 +2986,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>35.2458</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2997,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>35.5717</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3008,10 +3008,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>35.8657</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3019,10 +3019,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>36.1262</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3030,10 +3030,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>36.2823</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3041,10 +3041,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>36.4317</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3052,10 +3052,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>36.5516</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3063,10 +3063,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>36.6557</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.96337</v>
+        <v>0.0366313</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.388769999999999</v>
+        <v>0.611226</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3554</v>
+        <v>3.4731</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.9572</v>
+        <v>5.7714</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.9163</v>
+        <v>6.71009</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.843</v>
+        <v>7.17817</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.5941</v>
+        <v>9.48579</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.0747</v>
+        <v>11.7841</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.4334</v>
+        <v>13.1847</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.6575</v>
+        <v>14.1234</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.7399</v>
+        <v>16.3694</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.8105</v>
+        <v>18.6677</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3246,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.851</v>
+        <v>20.4626</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>38.8877</v>
+        <v>21.8632</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3268,10 +3268,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.923</v>
+        <v>22.8019</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3279,10 +3279,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>38.9556</v>
+        <v>23.6561</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3290,10 +3290,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.9785</v>
+        <v>24.362</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3301,10 +3301,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.9888</v>
+        <v>25.6736</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3312,10 +3312,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.9916</v>
+        <v>26.6123</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3323,10 +3323,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.9942</v>
+        <v>28.003</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3334,10 +3334,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.9959</v>
+        <v>28.9617</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3345,10 +3345,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.9972</v>
+        <v>29.9004</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3356,10 +3356,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.9984</v>
+        <v>30.7758</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3367,10 +3367,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>38.9991</v>
+        <v>31.6299</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3378,10 +3378,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>38.9994</v>
+        <v>32.3359</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3389,10 +3389,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>38.9996</v>
+        <v>33.19</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3400,10 +3400,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38.9997</v>
+        <v>33.9726</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3411,10 +3411,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>38.9998</v>
+        <v>34.443</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>38.9999</v>
+        <v>35.1372</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3433,7 +3433,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>35.6166</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -3444,7 +3444,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>39</v>
+        <v>36.0871</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>36.5232</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -3466,7 +3466,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>36.9264</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -3477,7 +3477,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>37.2523</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3488,7 +3488,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>37.5464</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -3499,7 +3499,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>39</v>
+        <v>37.8069</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.9461</v>
+        <v>0.0539036</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3561,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.909470000000001</v>
+        <v>1.25946</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3572,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.3349</v>
+        <v>3.73074</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3583,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.3015</v>
+        <v>5.92674</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3594,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.9032</v>
+        <v>7.1926</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3605,10 +3605,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36.8624</v>
+        <v>7.73864</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3616,10 +3616,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.7891</v>
+        <v>9.502140000000001</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3627,10 +3627,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45.5402</v>
+        <v>11.6981</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3638,10 +3638,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.0208</v>
+        <v>12.964</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3649,10 +3649,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46.3794</v>
+        <v>13.9027</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3660,10 +3660,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46.6036</v>
+        <v>15.5148</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3671,10 +3671,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.686</v>
+        <v>17.7108</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3682,10 +3682,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.7566</v>
+        <v>19.1114</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3693,10 +3693,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>46.8098</v>
+        <v>20.5165</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3704,10 +3704,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>46.8503</v>
+        <v>22.3984</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3715,10 +3715,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46.887</v>
+        <v>24.5944</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3726,10 +3726,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46.9223</v>
+        <v>26.3894</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3737,10 +3737,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>46.9548</v>
+        <v>27.79</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3748,10 +3748,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.9778</v>
+        <v>29.0558</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3759,10 +3759,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46.9881</v>
+        <v>29.9945</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3770,10 +3770,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46.9909</v>
+        <v>30.8487</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3781,10 +3781,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>46.9935</v>
+        <v>31.6003</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3792,10 +3792,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46.9952</v>
+        <v>32.8662</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3803,10 +3803,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>46.9965</v>
+        <v>33.9297</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3814,10 +3814,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>46.9976</v>
+        <v>35.1956</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3825,10 +3825,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>46.9984</v>
+        <v>36.1543</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3836,10 +3836,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>46.9991</v>
+        <v>37.093</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3847,10 +3847,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>46.9994</v>
+        <v>37.9684</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3858,10 +3858,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>46.9996</v>
+        <v>38.8225</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3869,10 +3869,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>46.9997</v>
+        <v>39.5285</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3880,10 +3880,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>46.9998</v>
+        <v>40.3826</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3891,10 +3891,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>46.9999</v>
+        <v>41.1652</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3902,10 +3902,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>46.9999</v>
+        <v>41.7112</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3913,10 +3913,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>42.3298</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3924,10 +3924,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>42.8759</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3935,10 +3935,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>43.3552</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96667</v>
+        <v>0.033327</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3997,10 +3997,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9128</v>
+        <v>0.599068</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4008,10 +4008,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.8761</v>
+        <v>1.59341</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.3015</v>
+        <v>3.76407</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.2682</v>
+        <v>5.96006</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.8699</v>
+        <v>7.22593</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4052,10 +4052,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.8291</v>
+        <v>7.79167</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43.7558</v>
+        <v>9.53547</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48.5069</v>
+        <v>11.7315</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48.9874</v>
+        <v>12.9973</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49.3461</v>
+        <v>13.936</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>49.5703</v>
+        <v>15.5482</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>49.6527</v>
+        <v>17.7441</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49.7233</v>
+        <v>19.1448</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.7765</v>
+        <v>20.5499</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>49.817</v>
+        <v>22.4317</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>49.8536</v>
+        <v>24.6277</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49.8889</v>
+        <v>26.4227</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>49.9215</v>
+        <v>27.8233</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4195,10 +4195,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.9541</v>
+        <v>29.0892</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4206,10 +4206,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49.977</v>
+        <v>30.0279</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4217,10 +4217,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.9874</v>
+        <v>30.882</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4228,10 +4228,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>49.9901</v>
+        <v>31.6337</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4239,10 +4239,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>49.9927</v>
+        <v>32.8995</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4250,10 +4250,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>49.9945</v>
+        <v>33.963</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4261,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>49.9958</v>
+        <v>35.2289</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4272,10 +4272,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>49.9969</v>
+        <v>36.1876</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4283,10 +4283,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>49.9976</v>
+        <v>37.1263</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4294,10 +4294,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>49.9984</v>
+        <v>38.0017</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4305,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>49.9991</v>
+        <v>38.8559</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4316,10 +4316,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>49.9994</v>
+        <v>39.5618</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4327,10 +4327,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>49.9996</v>
+        <v>40.416</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4338,10 +4338,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>49.9997</v>
+        <v>41.1985</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>49.9998</v>
+        <v>41.9761</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4360,10 +4360,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>49.9999</v>
+        <v>42.7586</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4371,10 +4371,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>49.9999</v>
+        <v>43.5411</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kursayin/output.xlsx
+++ b/kursayin/output.xlsx
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.248935</v>
+        <v>0.2489</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.98237</v>
+        <v>1.9824</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.61248</v>
+        <v>4.6125</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.90651</v>
+        <v>4.9065</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.98145</v>
+        <v>4.9814</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.99687</v>
+        <v>4.9969</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.99954</v>
+        <v>4.9995</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.99994</v>
+        <v>4.9999</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.99999</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -699,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0732626</v>
+        <v>0.2489</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -945,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00942</v>
+        <v>1.9824</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -956,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.40263</v>
+        <v>3.7371</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -967,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.81036</v>
+        <v>4.6125</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -978,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.74652</v>
+        <v>4.9065</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.13972</v>
+        <v>6.1397</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1000,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.09845</v>
+        <v>7.0985</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.97383</v>
+        <v>7.9739</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.409929999999999</v>
+        <v>8.41</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.70397</v>
+        <v>8.704000000000001</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.85342</v>
+        <v>8.853400000000001</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1055,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.92836</v>
+        <v>8.9283</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1077,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.98503</v>
+        <v>8.985099999999999</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.994579999999999</v>
+        <v>8.9946</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1099,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.99724</v>
+        <v>8.997199999999999</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.99915</v>
+        <v>8.9991</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.999549999999999</v>
+        <v>8.999499999999999</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1132,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.999879999999999</v>
+        <v>8.9998</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.999930000000001</v>
+        <v>8.9999</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1154,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.999980000000001</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -1165,10 +1165,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.99999</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0408677</v>
+        <v>0.2489</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.23769</v>
+        <v>1.9824</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.07041</v>
+        <v>4.0704</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.88358</v>
+        <v>6.8836</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1414,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.678559999999999</v>
+        <v>8.678599999999999</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.53274</v>
+        <v>9.5327</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1436,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.85863</v>
+        <v>10.661</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.0812</v>
+        <v>12.4157</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1458,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.4889</v>
+        <v>13.2911</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1469,10 +1469,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.4251</v>
+        <v>14.1452</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.777</v>
+        <v>15.7771</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.6524</v>
+        <v>16.6525</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1557,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.7121</v>
+        <v>18.712</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1612,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.9763</v>
+        <v>18.9764</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1623,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.9858</v>
+        <v>18.9859</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1634,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.9927</v>
+        <v>18.9928</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1700,7 +1700,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.9998</v>
+        <v>18.9997</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18.9999</v>
+        <v>18.9998</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -1747,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.398297</v>
+        <v>0.3983</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.17179</v>
+        <v>3.1718</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.97936</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.37996</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1850,10 +1850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.85042</v>
+        <v>8.678599999999999</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.8629</v>
+        <v>12.863</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.6579</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.0585</v>
+        <v>16.0586</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1916,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.3832</v>
+        <v>18.3951</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1927,10 +1927,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.4683</v>
+        <v>19.7957</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.8689</v>
+        <v>20.6711</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1949,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.805</v>
+        <v>21.5252</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.1982</v>
+        <v>22.1983</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1971,7 +1971,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.157</v>
+        <v>23.1571</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1982,7 +1982,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.0323</v>
+        <v>24.0325</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1993,7 +1993,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.8865</v>
+        <v>24.8866</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2048,7 +2048,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.5625</v>
+        <v>26.5624</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2059,7 +2059,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26.6824</v>
+        <v>26.6823</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2125,7 +2125,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>26.9713</v>
+        <v>26.9714</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -2136,7 +2136,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>26.9808</v>
+        <v>26.9809</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2147,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>26.9877</v>
+        <v>26.9878</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2158,7 +2158,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.992</v>
+        <v>26.9921</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.033327</v>
+        <v>0.3983</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2253,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.599068</v>
+        <v>3.1718</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2264,10 +2264,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.20511</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2275,10 +2275,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.01268</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2286,10 +2286,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.41329</v>
+        <v>8.678599999999999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2297,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.97903</v>
+        <v>10.0554</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2308,10 +2308,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.0887</v>
+        <v>12.863</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2319,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.8963</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2330,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.6912</v>
+        <v>16.0586</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2341,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.0918</v>
+        <v>16.9127</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2352,10 +2352,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.946</v>
+        <v>18.3951</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2363,10 +2363,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.6519</v>
+        <v>19.7957</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2374,10 +2374,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.5061</v>
+        <v>20.6711</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.9022</v>
+        <v>21.5252</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2396,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.8384</v>
+        <v>22.1983</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2407,10 +2407,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.2316</v>
+        <v>23.1571</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.1903</v>
+        <v>24.0325</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2429,10 +2429,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.0657</v>
+        <v>24.8866</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2440,10 +2440,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.9199</v>
+        <v>25.357</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2451,10 +2451,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.6258</v>
+        <v>25.7931</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.4799</v>
+        <v>26.48</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>29.8452</v>
+        <v>29.8451</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.574595</v>
+        <v>0.5746</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.43647</v>
+        <v>3.4365</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2700,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.73477</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.67346</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2722,10 +2722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.93398</v>
+        <v>9.415900000000001</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.449159999999999</v>
+        <v>11.7142</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2744,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.7475</v>
+        <v>13.1148</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2755,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.1481</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2766,10 +2766,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.0868</v>
+        <v>16.2995</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2777,10 +2777,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.3327</v>
+        <v>18.5978</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.631</v>
+        <v>20.3928</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.426</v>
+        <v>21.7934</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2810,10 +2810,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.8266</v>
+        <v>22.7321</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2821,10 +2821,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.7653</v>
+        <v>24.1299</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2832,10 +2832,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.6195</v>
+        <v>25.5305</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2843,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.3254</v>
+        <v>26.4692</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2854,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.637</v>
+        <v>27.3446</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.5757</v>
+        <v>28.1987</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2876,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.9663</v>
+        <v>28.8919</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.9251</v>
+        <v>29.8306</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.8638</v>
+        <v>30.706</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2909,7 +2909,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.7391</v>
+        <v>31.5601</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2920,7 +2920,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.5933</v>
+        <v>32.0305</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2931,7 +2931,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.2992</v>
+        <v>32.4666</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2942,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33.1534</v>
+        <v>33.1535</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -2953,7 +2953,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>33.9359</v>
+        <v>33.936</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -3114,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0366313</v>
+        <v>0.5746</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3125,10 +3125,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.611226</v>
+        <v>3.4365</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3136,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.4731</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3147,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.7714</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3158,10 +3158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.71009</v>
+        <v>9.415900000000001</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3169,10 +3169,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.17817</v>
+        <v>11.7142</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3180,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.48579</v>
+        <v>13.1148</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3191,10 +3191,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.7841</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3202,10 +3202,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.1847</v>
+        <v>16.2995</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3213,10 +3213,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.1234</v>
+        <v>18.5978</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3224,10 +3224,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.3694</v>
+        <v>20.3928</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3235,10 +3235,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6677</v>
+        <v>21.7934</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3246,10 +3246,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.4626</v>
+        <v>22.7321</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3257,10 +3257,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.8632</v>
+        <v>24.1299</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3268,10 +3268,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.8019</v>
+        <v>25.5305</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3279,10 +3279,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.6561</v>
+        <v>26.4692</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3290,10 +3290,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.362</v>
+        <v>27.3446</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3301,10 +3301,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.6736</v>
+        <v>28.1987</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3312,10 +3312,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.6123</v>
+        <v>28.8919</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3323,10 +3323,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.003</v>
+        <v>29.8306</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3334,10 +3334,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.9617</v>
+        <v>30.706</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3345,10 +3345,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.9004</v>
+        <v>31.5601</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3356,10 +3356,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.7758</v>
+        <v>32.0305</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3367,10 +3367,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31.6299</v>
+        <v>32.4666</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3378,10 +3378,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>32.3359</v>
+        <v>33.1535</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3389,10 +3389,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>33.19</v>
+        <v>33.936</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3400,10 +3400,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33.9726</v>
+        <v>34.4064</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3411,10 +3411,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34.443</v>
+        <v>34.8425</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3422,10 +3422,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>35.1372</v>
+        <v>35.2458</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>35.6166</v>
+        <v>35.6167</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -3466,7 +3466,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>36.9264</v>
+        <v>36.9265</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -3477,7 +3477,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>37.2523</v>
+        <v>37.2524</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3550,10 +3550,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0539036</v>
+        <v>0.5746</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3561,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.25946</v>
+        <v>3.4365</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3572,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.73074</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3583,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.92674</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3594,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.1926</v>
+        <v>9.415900000000001</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3605,10 +3605,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.73864</v>
+        <v>11.7142</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3616,10 +3616,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.502140000000001</v>
+        <v>13.1148</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3627,10 +3627,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.6981</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3638,10 +3638,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.964</v>
+        <v>16.2995</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3649,10 +3649,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.9027</v>
+        <v>18.5978</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3660,10 +3660,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.5148</v>
+        <v>20.3928</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3671,10 +3671,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.7108</v>
+        <v>21.7934</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3682,10 +3682,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.1114</v>
+        <v>22.7321</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3693,10 +3693,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.5165</v>
+        <v>24.5245</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3704,10 +3704,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.3984</v>
+        <v>26.3195</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3715,7 +3715,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.5944</v>
+        <v>27.7201</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -3726,10 +3726,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.3894</v>
+        <v>28.986</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3737,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.79</v>
+        <v>30.0566</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3748,10 +3748,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.0558</v>
+        <v>31.4572</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3759,7 +3759,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.9945</v>
+        <v>32.7231</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.8487</v>
+        <v>33.6618</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -3781,10 +3781,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.6003</v>
+        <v>34.5372</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3792,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.8662</v>
+        <v>35.3913</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -3803,10 +3803,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33.9297</v>
+        <v>36.0845</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3814,7 +3814,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35.1956</v>
+        <v>37.0232</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -3825,7 +3825,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>36.1543</v>
+        <v>37.8986</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -3836,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>37.093</v>
+        <v>38.7527</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -3847,10 +3847,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>37.9684</v>
+        <v>39.2987</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3858,10 +3858,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>38.8225</v>
+        <v>39.7691</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3869,7 +3869,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>39.5285</v>
+        <v>40.3461</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -3880,7 +3880,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>40.3826</v>
+        <v>41.1286</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -3891,10 +3891,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>41.1652</v>
+        <v>41.6746</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3902,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>41.7112</v>
+        <v>42.145</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -3913,10 +3913,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>42.3298</v>
+        <v>42.5811</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.8759</v>
+        <v>42.9844</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.3552</v>
+        <v>43.3553</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -3986,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.033327</v>
+        <v>0.5746</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3997,10 +3997,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.599068</v>
+        <v>3.4365</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4008,10 +4008,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.59341</v>
+        <v>5.9794</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4019,10 +4019,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.76407</v>
+        <v>7.38</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4030,10 +4030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.96006</v>
+        <v>9.415900000000001</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4041,10 +4041,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.22593</v>
+        <v>11.7142</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4052,10 +4052,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.79167</v>
+        <v>13.1148</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4063,10 +4063,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.53547</v>
+        <v>14.658</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4074,10 +4074,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.7315</v>
+        <v>16.2995</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4085,10 +4085,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.9973</v>
+        <v>18.5978</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4096,10 +4096,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.936</v>
+        <v>20.3928</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4107,10 +4107,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5482</v>
+        <v>21.7934</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4118,10 +4118,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.7441</v>
+        <v>22.7321</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4129,10 +4129,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.1448</v>
+        <v>24.5245</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4140,10 +4140,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.5499</v>
+        <v>26.3195</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4151,10 +4151,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.4317</v>
+        <v>27.7201</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4162,10 +4162,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.6277</v>
+        <v>28.986</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4173,10 +4173,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.4227</v>
+        <v>30.0566</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4184,10 +4184,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.8233</v>
+        <v>31.4572</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4195,10 +4195,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.0892</v>
+        <v>32.7231</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4206,10 +4206,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.0279</v>
+        <v>33.6618</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4217,10 +4217,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.882</v>
+        <v>34.5372</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4228,10 +4228,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.6337</v>
+        <v>35.3913</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4239,10 +4239,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.8995</v>
+        <v>36.0845</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4250,10 +4250,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33.963</v>
+        <v>37.0232</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4261,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>35.2289</v>
+        <v>37.8986</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4272,10 +4272,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>36.1876</v>
+        <v>38.7527</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4283,10 +4283,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>37.1263</v>
+        <v>39.2987</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4294,10 +4294,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>38.0017</v>
+        <v>39.7691</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4305,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>38.8559</v>
+        <v>40.3461</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4316,10 +4316,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>39.5618</v>
+        <v>41.1286</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4327,10 +4327,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>40.416</v>
+        <v>41.6746</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4338,10 +4338,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>41.1985</v>
+        <v>42.145</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>41.9761</v>
+        <v>42.722</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4360,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.7586</v>
+        <v>43.5045</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4371,7 +4371,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.5411</v>
+        <v>44.0505</v>
       </c>
       <c r="C38">
         <v>4</v>
